--- a/docs/File format.xlsx
+++ b/docs/File format.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Тип файла</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Количество частотных интервалов паузы (Rp)</t>
+  </si>
+  <si>
+    <t>Частота дискретизации исходного файла</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -165,11 +168,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -186,9 +202,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -207,14 +220,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:L13"/>
+  <dimension ref="B2:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -522,183 +557,196 @@
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:13">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-    </row>
-    <row r="3" spans="2:12" s="1" customFormat="1" ht="71.25" customHeight="1">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="2:13" s="1" customFormat="1" ht="71.25" customHeight="1">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:12" s="2" customFormat="1">
+    <row r="4" spans="2:13" s="2" customFormat="1">
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="2:13">
+      <c r="B6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:12" s="1" customFormat="1" ht="71.25" customHeight="1">
-      <c r="B7" s="12" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:13" s="1" customFormat="1" ht="71.25" customHeight="1">
+      <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:12" s="2" customFormat="1">
-      <c r="B8" s="15" t="s">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="2:13" s="2" customFormat="1">
+      <c r="B8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="16" t="s">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="2:12" s="1" customFormat="1" ht="71.25" customHeight="1">
-      <c r="B11" s="12" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="2:13" s="1" customFormat="1" ht="71.25" customHeight="1">
+      <c r="B11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" s="2" customFormat="1">
-      <c r="B12" s="15" t="s">
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="2:13" s="2" customFormat="1">
+      <c r="B12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" ht="49.5" customHeight="1">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="12" t="s">
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="2:13" ht="49.5" customHeight="1">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D13:F13"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B2:M2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B6:D6"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
